--- a/assets/excel/data_network.xlsx
+++ b/assets/excel/data_network.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
   <si>
     <t>Devices</t>
   </si>
@@ -51,6 +51,159 @@
   </si>
   <si>
     <t>Condition</t>
+  </si>
+  <si>
+    <t>Firewall</t>
+  </si>
+  <si>
+    <t>Mikrotik</t>
+  </si>
+  <si>
+    <t>Router Board Mikrotic 450 G</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Month</t>
+  </si>
+  <si>
+    <t>KSN-010</t>
+  </si>
+  <si>
+    <t>Kemana Jakarta</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Mikrotik Cloud Core Router CCR1016-12G</t>
+  </si>
+  <si>
+    <t>KSN-018</t>
+  </si>
+  <si>
+    <t>Mikrotik Router Wireless RB962UiGS-5HacT2HnT (hAP-AC)</t>
+  </si>
+  <si>
+    <t>KSN-017</t>
+  </si>
+  <si>
+    <t>Router Board Mikrotik RB750r2</t>
+  </si>
+  <si>
+    <t>KSN-019</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Peplink</t>
+  </si>
+  <si>
+    <t>Peplink Balance 20</t>
+  </si>
+  <si>
+    <t>KSN-012</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>LinkSys</t>
+  </si>
+  <si>
+    <t>LinkSys 48Port</t>
+  </si>
+  <si>
+    <t>KSN-011</t>
+  </si>
+  <si>
+    <t>D-Link</t>
+  </si>
+  <si>
+    <t>D-Link Gigabit Switch 8 Port</t>
+  </si>
+  <si>
+    <t>KSN-014</t>
+  </si>
+  <si>
+    <t>TP-Link</t>
+  </si>
+  <si>
+    <t>TP-Link TL-SG1016</t>
+  </si>
+  <si>
+    <t>KSN-021</t>
+  </si>
+  <si>
+    <t>KSN-022</t>
+  </si>
+  <si>
+    <t>Access Point</t>
+  </si>
+  <si>
+    <t>ASUS</t>
+  </si>
+  <si>
+    <t>ASUS RT-N14UHP</t>
+  </si>
+  <si>
+    <t>KSN-001</t>
+  </si>
+  <si>
+    <t>TPLink TL-WA730RE</t>
+  </si>
+  <si>
+    <t>KSN-002</t>
+  </si>
+  <si>
+    <t>TP-Link TD-W8951ND</t>
+  </si>
+  <si>
+    <t>KSN-008</t>
+  </si>
+  <si>
+    <t>TP-Link N Router WR841HP</t>
+  </si>
+  <si>
+    <t>KSN-009</t>
+  </si>
+  <si>
+    <t>D-Link Dir-615</t>
+  </si>
+  <si>
+    <t>KSN-013</t>
+  </si>
+  <si>
+    <t>TP-Link TL-WL841HP</t>
+  </si>
+  <si>
+    <t>KSN-015</t>
+  </si>
+  <si>
+    <t>TP-Link TL-SG1008D</t>
+  </si>
+  <si>
+    <t>KSN-016</t>
+  </si>
+  <si>
+    <t>ASUS RT-N18U</t>
+  </si>
+  <si>
+    <t>KSN-020</t>
+  </si>
+  <si>
+    <t>TP-Link Powerline adapter</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>KSX-XXX</t>
+  </si>
+  <si>
+    <t>TP-Link Wifi Repeater</t>
   </si>
 </sst>
 </file>
@@ -389,7 +542,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,6 +586,512 @@
       </c>
       <c r="L1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2"/>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3"/>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" t="s">
+        <v>61</v>
+      </c>
+      <c r="K19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" t="s">
+        <v>61</v>
+      </c>
+      <c r="K20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
